--- a/data/long_bre/P24_1-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_1-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,42</t>
+          <t>23,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,11</t>
+          <t>-11,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>105,63%</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,76%</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>101,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-24,26%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38,37%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-11,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,33%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,39; 37,57</t>
+          <t>11,86; 35,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 2,54</t>
+          <t>-26,18; 4,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 20,65</t>
+          <t>-2,56; 21,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,53; 216,56</t>
+          <t>-23,35; 12,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,06; 6,56</t>
+          <t>-24,59; 15,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 122,17</t>
+          <t>38,19; 197,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-46,53; 9,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,74; 122,12</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-46,39; 45,58</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-62,92; 107,44</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-18,15</t>
+          <t>-19,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-34,56%</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,39%</t>
+          <t>-35,91%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-11,76%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-19,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,34%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -5,46</t>
+          <t>-32,33; -7,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 15,28</t>
+          <t>-11,0; 16,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 9,58</t>
+          <t>-18,81; 8,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,51; -11,84</t>
+          <t>-25,25; 9,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,68; 58,44</t>
+          <t>-20,58; 20,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 24,48</t>
+          <t>-53,17; -13,8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-28,15; 70,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-35,21; 22,55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-49,41; 29,27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-39,02; 72,15</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,27</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-25,71%</t>
+          <t>12,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,84%</t>
+          <t>-20,85%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-12,76%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>60,29%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 4,42</t>
+          <t>-16,45; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 20,78</t>
+          <t>-3,46; 20,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 9,22</t>
+          <t>-17,36; 9,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-56,5; 25,73</t>
+          <t>-3,14; 26,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 149,56</t>
+          <t>-19,01; 19,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 44,52</t>
+          <t>-55,11; 35,49</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-14,12; 166,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-46,36; 45,64</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-14,08; 224,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-43,94; 94,97</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 12,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 13,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 5,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 59,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,84; 67,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,12; 29,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,1%</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-12,28%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-7,31%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>115,05%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 21,29</t>
+          <t>-9,95; 11,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 11,33</t>
+          <t>-19,79; 15,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 20,57</t>
+          <t>-23,02; 7,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 64,84</t>
+          <t>-14,47; 10,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,55; 31,19</t>
+          <t>-1,08; 26,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 57,77</t>
+          <t>-32,29; 64,39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-44,91; 74,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-53,89; 40,02</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-46,29; 69,88</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; 575,59</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,47</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,47%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14,23%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 5,72</t>
+          <t>-5,65; 21,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 14,37</t>
+          <t>-17,65; 11,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 6,97</t>
+          <t>-5,9; 20,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 24,94</t>
+          <t>-6,13; 25,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 81,52</t>
+          <t>-18,67; 26,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 33,95</t>
+          <t>-12,06; 69,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-33,53; 33,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 57,5</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-15,78; 124,48</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-33,02; 106,46</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-9,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,11</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,77%</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>-15,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-20,97%</t>
+          <t>-27,09%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11,18%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-9,95%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-16,37%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-33,37%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 9,59</t>
+          <t>-27,1; 3,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 15,31</t>
+          <t>-8,77; 13,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 2,06</t>
+          <t>-16,36; 7,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-37,65; 40,84</t>
+          <t>-32,0; 10,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 61,76</t>
+          <t>-41,12; 5,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 7,28</t>
+          <t>-58,24; 15,52</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-28,37; 77,42</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-44,03; 32,69</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-51,42; 33,58</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-63,8; 21,89</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 19,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 6,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 7,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 58,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 17,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 19,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-20,65%</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>-6,55%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-20,82%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 3,94</t>
+          <t>-13,15; 7,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 7,49</t>
+          <t>-8,49; 14,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 17,77</t>
+          <t>-16,29; 2,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-51,85; 20,0</t>
+          <t>-7,12; 11,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 40,43</t>
+          <t>-8,22; 16,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 114,09</t>
+          <t>-34,14; 31,63</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-21,4; 58,55</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-40,38; 8,93</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-23,66; 63,59</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-26,76; 85,09</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>10,37%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-8,47%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-7,18%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 16,88</t>
+          <t>-7,48; 15,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 9,06</t>
+          <t>-14,96; 7,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 12,91</t>
+          <t>-10,23; 9,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 99,11</t>
+          <t>-14,91; 7,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 40,42</t>
+          <t>-11,36; 15,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 64,61</t>
+          <t>-14,23; 41,29</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,65; 20,31</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-20,48; 24,69</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-29,15; 21,02</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-24,61; 49,65</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-14,71%</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>-10,18%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>35,8%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-17,52%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 1,64</t>
+          <t>-13,58; 6,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 4,55</t>
+          <t>-8,98; 7,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 1,88</t>
+          <t>-2,24; 15,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 3,3</t>
+          <t>-8,88; 10,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 10,96</t>
+          <t>-19,3; 6,35</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 4,33</t>
+          <t>-40,15; 35,55</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-32,38; 47,25</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; 90,61</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-24,39; 42,16</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-44,99; 22,92</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1978,114 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 8,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 12,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 9,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 40,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 63,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 44,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-5,72</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-20,74%</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-5,02%</t>
+          <t>32,48%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>12,59%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +2098,52 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 12,45</t>
+          <t>-1,47; 14,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 4,73</t>
+          <t>-6,63; 10,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 7,76</t>
+          <t>-1,25; 13,99</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 84,56</t>
+          <t>-9,39; 8,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-51,01; 23,18</t>
+          <t>-8,39; 15,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-31,24; 33,94</t>
+          <t>-5,92; 90,65</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-22,08; 48,69</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 72,15</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-32,21; 45,29</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-26,31; 81,74</t>
         </is>
       </c>
     </row>
@@ -1603,37 +2151,57 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-6,94</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>-13,03%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-13,28%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-13,59%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-11,65%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +2214,52 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 12,17</t>
+          <t>-16,64; 2,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 11,2</t>
+          <t>-16,45; 3,45</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 3,95</t>
+          <t>-15,74; 1,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 27,91</t>
+          <t>-6,33; 14,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 27,79</t>
+          <t>-19,55; 7,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 8,09</t>
+          <t>-28,16; 5,91</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-29,79; 7,62</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-28,44; 3,63</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-13,22; 45,01</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-35,32; 18,12</t>
         </is>
       </c>
     </row>
@@ -1679,37 +2267,57 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-9,82%</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-9,59%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2330,110 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 8,38</t>
+          <t>-7,26; 9,09</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 15,98</t>
+          <t>-4,75; 12,36</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 15,42</t>
+          <t>-6,97; 8,59</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 33,5</t>
+          <t>-17,79; 6,43</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 74,37</t>
+          <t>-9,78; 13,91</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 94,66</t>
+          <t>-24,42; 41,84</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-15,42; 59,53</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-22,0; 37,64</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-42,0; 23,82</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-30,0; 69,61</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2446,114 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 7,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 12,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 9,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-53,25; 40,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 102,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 50,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-9,97</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-7,08</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-16,48%</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-20,34%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-7,55%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>-18,12%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2566,52 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 21,63</t>
+          <t>-6,38; 10,33</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 2,81</t>
+          <t>-16,94; 5,06</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 4,95</t>
+          <t>-10,59; 7,21</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 53,55</t>
+          <t>-9,6; 13,97</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-38,76; 6,07</t>
+          <t>-17,3; 7,15</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 10,15</t>
+          <t>-26,77; 69,28</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-48,8; 28,58</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-31,86; 30,54</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-29,14; 69,81</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>-49,17; 38,01</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2619,57 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-15,39%</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>40,71%</t>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-11,33%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-4,95%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>-3,31%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2682,110 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 6,93</t>
+          <t>-11,19; 11,97</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 19,0</t>
+          <t>-10,99; 13,45</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 17,74</t>
+          <t>-15,76; 4,81</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-47,02; 35,48</t>
+          <t>-16,36; 10,29</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 113,39</t>
+          <t>-16,55; 13,25</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 132,71</t>
+          <t>-20,76; 27,11</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-20,93; 33,2</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-28,47; 9,68</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-29,71; 25,6</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>-29,02; 33,55</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>-10,04%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>16,34%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>41,38%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>30,24%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2798,52 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 8,39</t>
+          <t>-14,34; 8,3</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 4,01</t>
+          <t>-6,06; 15,11</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 3,77</t>
+          <t>-1,43; 16,07</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 38,82</t>
+          <t>-10,02; 11,63</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 15,44</t>
+          <t>-5,7; 18,93</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 14,93</t>
+          <t>-38,29; 32,93</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-19,27; 71,53</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 103,43</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-33,5; 59,24</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>-21,04; 122,07</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2851,57 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-6,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2914,114 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 5,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 12,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 3,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 3,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-15,81%</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>-22,54%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>-2,52%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>-38,5%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +3034,890 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 0,26</t>
+          <t>-21,78; 3,47</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 8,22</t>
+          <t>-7,07; 12,75</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 7,19</t>
+          <t>-11,02; 9,52</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 1,36</t>
+          <t>-14,07; 13,37</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 38,15</t>
+          <t>-19,42; 3,9</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 32,59</t>
+          <t>-57,96; 19,91</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-28,07; 95,89</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-37,45; 50,26</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>-45,06; 81,56</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>-77,81; 37,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-8,76</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-8,34</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-14,01</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-14,96%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-14,66%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>-27,0%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>-5,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 20,38</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-20,93; 5,18</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-19,89; 2,81</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-29,6; 1,92</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-21,47; 15,8</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-10,9; 49,3</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-32,97; 10,21</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-31,39; 5,97</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>-49,11; 4,32</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>-33,6; 33,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>5,3</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>8,41</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>14,6</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>9,85</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>23,05%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>43,15%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>59,31%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>37,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-10,74; 11,66</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 15,18</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 17,3</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 28,52</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 26,11</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-35,73; 59,02</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-20,35; 86,14</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 119,22</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 165,41</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>-27,42; 140,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>-1,09%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 6,98</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 3,74</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 4,89</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 4,73</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 5,87</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 31,07</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 13,57</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; 19,89</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>-17,36; 20,02</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>-20,44; 30,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-3,25</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-6,03%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-6,75%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>-4,91%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 4,35</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-8,0; 2,54</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 1,29</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 3,9</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-6,7; 7,86</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 9,6</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-16,36; 5,85</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-16,21; 2,86</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>-16,91; 9,94</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>-13,62; 18,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-2,99</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-10,88%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>-1,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 1,78</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 7,84</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 7,15</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 7,85</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-8,49; 6,26</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-25,21; 6,8</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 35,49</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 32,52</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; 29,54</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>-22,75; 21,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_1-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_1-Edad-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1446,7 +1446,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1792,7 +1792,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1906,7 +1906,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2138,7 +2138,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2252,7 +2252,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2484,7 +2484,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2598,7 +2598,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2830,7 +2830,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2944,7 +2944,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
